--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/user_detail_h.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/user_detail_h.xlsx
@@ -566,10 +566,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -660,16 +659,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -692,4764 +691,4764 @@
   <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B:B"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J:J"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="8.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>110001</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="4" t="n">
         <v>5402120055</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="4" t="n">
         <v>975366148</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="0" t="s">
+      <c r="I2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>110002</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="4" t="n">
         <v>7314004469</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="4" t="n">
         <v>795281431</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="0" t="s">
+      <c r="I3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>110003</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="4" t="n">
         <v>7896109326</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="4" t="n">
         <v>739704695</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="s">
+      <c r="I4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>110004</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="4" t="n">
         <v>2870381373</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="4" t="n">
         <v>725028706</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>10004</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="s">
+      <c r="I5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>110005</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="4" t="n">
         <v>7234451333</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="4" t="n">
         <v>804319687</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>10005</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="s">
+      <c r="I6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>110006</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="4" t="n">
         <v>3563474484</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="4" t="n">
         <v>9449170382</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K7" s="0" t="s">
+      <c r="I7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>110007</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="4" t="n">
         <v>5804057178</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="4" t="n">
         <v>899884346</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="I8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="s">
+      <c r="I8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>110008</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="4" t="n">
         <v>1823955503</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="4" t="n">
         <v>946624002</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="I9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="s">
+      <c r="I9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>110009</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="4" t="n">
         <v>6028049229</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="4" t="n">
         <v>716591396</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>10009</v>
       </c>
-      <c r="I10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K10" s="0" t="s">
+      <c r="I10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>110010</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="4" t="n">
         <v>2685259089</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="4" t="n">
         <v>718961429</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>10010</v>
       </c>
-      <c r="I11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K11" s="0" t="s">
+      <c r="I11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>110011</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="4" t="n">
         <v>3834346151</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="4" t="n">
         <v>938380935</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>10011</v>
       </c>
-      <c r="I12" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K12" s="0" t="s">
+      <c r="I12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>110012</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="4" t="n">
         <v>3493338361</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="4" t="n">
         <v>911713143</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>10011</v>
       </c>
-      <c r="I13" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="s">
+      <c r="I13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>110013</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="4" t="n">
         <v>5145284955</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="4" t="n">
         <v>859668671</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>10012</v>
       </c>
-      <c r="I14" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K14" s="0" t="s">
+      <c r="I14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>110014</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="4" t="n">
         <v>4285838622</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="4" t="n">
         <v>971384902</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>10012</v>
       </c>
-      <c r="I15" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K15" s="0" t="s">
+      <c r="I15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>110015</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="4" t="n">
         <v>3740463764</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="4" t="n">
         <v>876997632</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>10013</v>
       </c>
-      <c r="I16" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K16" s="0" t="s">
+      <c r="I16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>110016</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="4" t="n">
         <v>6431857131</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="4" t="n">
         <v>853451517</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>10013</v>
       </c>
-      <c r="I17" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K17" s="0" t="s">
+      <c r="I17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>110017</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="4" t="n">
         <v>2638207977</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="4" t="n">
         <v>723337142</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>10014</v>
       </c>
-      <c r="I18" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K18" s="0" t="s">
+      <c r="I18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>110018</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="4" t="n">
         <v>6893364288</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="4" t="n">
         <v>733802681</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>10014</v>
       </c>
-      <c r="I19" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K19" s="0" t="s">
+      <c r="I19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>110019</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="4" t="n">
         <v>5251539502</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="4" t="n">
         <v>942983448</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>10015</v>
       </c>
-      <c r="I20" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K20" s="0" t="s">
+      <c r="I20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>110020</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="4" t="n">
         <v>7724013062</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="4" t="n">
         <v>936463358</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>10015</v>
       </c>
-      <c r="I21" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K21" s="0" t="s">
+      <c r="I21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>110021</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="4" t="n">
         <v>7316931025</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="4" t="n">
         <v>932122450</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="I22" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K22" s="0" t="s">
+      <c r="I22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>110022</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="4" t="n">
         <v>9137847236</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="4" t="n">
         <v>848488000</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="I23" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K23" s="0" t="s">
+      <c r="I23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>110023</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="4" t="n">
         <v>8428758532</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="4" t="n">
         <v>894773246</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>10004</v>
       </c>
-      <c r="I24" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K24" s="0" t="s">
+      <c r="I24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>110024</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="4" t="n">
         <v>9804209494</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="4" t="n">
         <v>956554588</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="I25" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K25" s="0" t="s">
+      <c r="I25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>110025</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="4" t="n">
         <v>7105248214</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" s="4" t="n">
         <v>765455583</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="I26" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K26" s="0" t="s">
+      <c r="I26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>110026</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="4" t="n">
         <v>9316557128</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27" s="4" t="n">
         <v>884282274</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="I27" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K27" s="0" t="s">
+      <c r="I27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>110027</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="4" t="n">
         <v>8103486949</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28" s="4" t="n">
         <v>971073663</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="I28" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K28" s="0" t="s">
+      <c r="I28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>110028</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="4" t="n">
         <v>9601932866</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29" s="4" t="n">
         <v>809908673</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>10009</v>
       </c>
-      <c r="I29" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K29" s="0" t="s">
+      <c r="I29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>110029</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="4" t="n">
         <v>9317596765</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30" s="4" t="n">
         <v>818876429</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>10010</v>
       </c>
-      <c r="I30" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K30" s="0" t="s">
+      <c r="I30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>110030</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="4" t="n">
         <v>9317596768</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31" s="4" t="n">
         <v>818876432</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I31" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K31" s="0" t="s">
+      <c r="I31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>110031</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="4" t="n">
         <v>9317596767</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F32" s="4" t="n">
         <v>818876431</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I32" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K32" s="0" t="s">
+      <c r="I32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>110032</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="4" t="n">
         <v>9317596770</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33" s="4" t="n">
         <v>818876433</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="I33" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K33" s="0" t="s">
+      <c r="I33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>110033</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="4" t="n">
         <v>9317596771</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34" s="4" t="n">
         <v>818876434</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>10005</v>
       </c>
-      <c r="I34" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K34" s="0" t="s">
+      <c r="I34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>110034</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="4" t="n">
         <v>9317596772</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35" s="4" t="n">
         <v>818876435</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H35" s="1" t="n">
         <v>10005</v>
       </c>
-      <c r="I35" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K35" s="0" t="s">
+      <c r="I35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>110035</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="4" t="n">
         <v>9317596773</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36" s="4" t="n">
         <v>818876436</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="G36" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H36" s="1" t="n">
         <v>10005</v>
       </c>
-      <c r="I36" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K36" s="0" t="s">
+      <c r="I36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>110036</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="4" t="n">
         <v>9317596774</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37" s="4" t="n">
         <v>818876437</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H37" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="I37" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K37" s="0" t="s">
+      <c r="I37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>110037</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="4" t="n">
         <v>9317596775</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38" s="4" t="n">
         <v>818876438</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H38" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="I38" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K38" s="0" t="s">
+      <c r="I38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>110038</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="4" t="n">
         <v>9317596776</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39" s="4" t="n">
         <v>8763740607</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H39" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="I39" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K39" s="0" t="s">
+      <c r="I39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>110039</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="4" t="n">
         <v>9317596777</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40" s="4" t="n">
         <v>818876440</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H40" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="I40" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J40" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K40" s="0" t="s">
+      <c r="I40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>110040</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="4" t="n">
         <v>9317596778</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41" s="4" t="n">
         <v>818876441</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="G41" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H41" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="I41" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J41" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K41" s="0" t="s">
+      <c r="I41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>110041</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="4" t="n">
         <v>9317596779</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="F42" s="4" t="n">
         <v>818876442</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="G42" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H42" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="I42" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J42" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K42" s="0" t="s">
+      <c r="I42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>110042</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="4" t="n">
         <v>9317596780</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="F43" s="4" t="n">
         <v>818876443</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H43" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="I43" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J43" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K43" s="0" t="s">
+      <c r="I43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>110043</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="4" t="n">
         <v>9317596781</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44" s="4" t="n">
         <v>818876444</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="G44" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H44" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="I44" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J44" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K44" s="0" t="s">
+      <c r="I44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>110044</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="4" t="n">
         <v>9317596782</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45" s="4" t="n">
         <v>818876445</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="G45" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H45" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="I45" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J45" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K45" s="0" t="s">
+      <c r="I45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>110045</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="4" t="n">
         <v>9317596783</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="F46" s="4" t="n">
         <v>818876446</v>
       </c>
-      <c r="G46" s="0" t="s">
+      <c r="G46" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H46" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="I46" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J46" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K46" s="0" t="s">
+      <c r="I46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>110046</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" s="4" t="n">
         <v>9317596784</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47" s="4" t="n">
         <v>818876447</v>
       </c>
-      <c r="G47" s="0" t="s">
+      <c r="G47" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H47" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="I47" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J47" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K47" s="0" t="s">
+      <c r="I47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>110047</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="4" t="n">
         <v>9317596785</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48" s="4" t="n">
         <v>818876448</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="G48" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H48" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="I48" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J48" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K48" s="0" t="s">
+      <c r="I48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>110048</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="4" t="n">
         <v>9317596786</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="F49" s="4" t="n">
         <v>818876449</v>
       </c>
-      <c r="G49" s="0" t="s">
+      <c r="G49" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H49" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="I49" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J49" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K49" s="0" t="s">
+      <c r="I49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>110049</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="4" t="n">
         <v>9317596787</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50" s="4" t="n">
         <v>818876450</v>
       </c>
-      <c r="G50" s="0" t="s">
+      <c r="G50" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H50" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="I50" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J50" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K50" s="0" t="s">
+      <c r="I50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>110050</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51" s="4" t="n">
         <v>9317596788</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F51" s="0" t="n">
+      <c r="F51" s="4" t="n">
         <v>818876451</v>
       </c>
-      <c r="G51" s="0" t="s">
+      <c r="G51" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H51" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="I51" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J51" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K51" s="0" t="s">
+      <c r="I51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>110051</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="4" t="n">
         <v>9317596789</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F52" s="0" t="n">
+      <c r="F52" s="4" t="n">
         <v>818876452</v>
       </c>
-      <c r="G52" s="0" t="s">
+      <c r="G52" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H52" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="I52" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J52" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K52" s="0" t="s">
+      <c r="I52" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>110052</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53" s="4" t="n">
         <v>9317596790</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F53" s="0" t="n">
+      <c r="F53" s="4" t="n">
         <v>818876453</v>
       </c>
-      <c r="G53" s="0" t="s">
+      <c r="G53" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H53" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="I53" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J53" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K53" s="0" t="s">
+      <c r="I53" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>110053</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54" s="4" t="n">
         <v>9317596791</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="E54" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F54" s="0" t="n">
+      <c r="F54" s="4" t="n">
         <v>818876454</v>
       </c>
-      <c r="G54" s="0" t="s">
+      <c r="G54" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H54" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="I54" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J54" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K54" s="0" t="s">
+      <c r="I54" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>110054</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55" s="4" t="n">
         <v>9317596792</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F55" s="0" t="n">
+      <c r="F55" s="4" t="n">
         <v>818876455</v>
       </c>
-      <c r="G55" s="0" t="s">
+      <c r="G55" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H55" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="I55" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J55" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K55" s="0" t="s">
+      <c r="I55" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>110055</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56" s="4" t="n">
         <v>9317596793</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="E56" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F56" s="0" t="n">
+      <c r="F56" s="4" t="n">
         <v>818876456</v>
       </c>
-      <c r="G56" s="0" t="s">
+      <c r="G56" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H56" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="I56" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J56" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K56" s="0" t="s">
+      <c r="I56" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>110056</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57" s="4" t="n">
         <v>9317596794</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F57" s="0" t="n">
+      <c r="F57" s="4" t="n">
         <v>818876457</v>
       </c>
-      <c r="G57" s="0" t="s">
+      <c r="G57" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H57" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="I57" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J57" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K57" s="0" t="s">
+      <c r="I57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>110057</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58" s="4" t="n">
         <v>9317596795</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="E58" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F58" s="0" t="n">
+      <c r="F58" s="4" t="n">
         <v>818876458</v>
       </c>
-      <c r="G58" s="0" t="s">
+      <c r="G58" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H58" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="I58" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J58" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K58" s="0" t="s">
+      <c r="I58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>110058</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59" s="4" t="n">
         <v>9317596796</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="E59" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F59" s="0" t="n">
+      <c r="F59" s="4" t="n">
         <v>818876459</v>
       </c>
-      <c r="G59" s="0" t="s">
+      <c r="G59" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H59" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="I59" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J59" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K59" s="0" t="s">
+      <c r="I59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K59" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>110059</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60" s="4" t="n">
         <v>9317596797</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="E60" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F60" s="0" t="n">
+      <c r="F60" s="4" t="n">
         <v>818876460</v>
       </c>
-      <c r="G60" s="0" t="s">
+      <c r="G60" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H60" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="I60" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J60" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K60" s="0" t="s">
+      <c r="I60" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K60" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>110060</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61" s="4" t="n">
         <v>9317596798</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="E61" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F61" s="0" t="n">
+      <c r="F61" s="4" t="n">
         <v>818876461</v>
       </c>
-      <c r="G61" s="0" t="s">
+      <c r="G61" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H61" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="I61" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J61" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K61" s="0" t="s">
+      <c r="I61" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J61" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>110061</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62" s="4" t="n">
         <v>9317596799</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="E62" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F62" s="0" t="n">
+      <c r="F62" s="4" t="n">
         <v>818876462</v>
       </c>
-      <c r="G62" s="0" t="s">
+      <c r="G62" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H62" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="I62" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J62" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K62" s="0" t="s">
+      <c r="I62" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J62" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>110062</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63" s="4" t="n">
         <v>9317596800</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="E63" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F63" s="0" t="n">
+      <c r="F63" s="4" t="n">
         <v>818876463</v>
       </c>
-      <c r="G63" s="0" t="s">
+      <c r="G63" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H63" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="I63" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J63" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K63" s="0" t="s">
+      <c r="I63" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>110063</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64" s="4" t="n">
         <v>9317596801</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="E64" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F64" s="0" t="n">
+      <c r="F64" s="4" t="n">
         <v>818876464</v>
       </c>
-      <c r="G64" s="0" t="s">
+      <c r="G64" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H64" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="I64" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J64" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K64" s="0" t="s">
+      <c r="I64" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J64" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>110064</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65" s="4" t="n">
         <v>9317596802</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E65" s="0" t="s">
+      <c r="E65" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F65" s="0" t="n">
+      <c r="F65" s="4" t="n">
         <v>818876465</v>
       </c>
-      <c r="G65" s="0" t="s">
+      <c r="G65" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H65" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="I65" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J65" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K65" s="0" t="s">
+      <c r="I65" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>110065</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66" s="4" t="n">
         <v>9317596803</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E66" s="0" t="s">
+      <c r="E66" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F66" s="4" t="n">
         <v>818876466</v>
       </c>
-      <c r="G66" s="0" t="s">
+      <c r="G66" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H66" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="I66" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J66" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K66" s="0" t="s">
+      <c r="I66" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J66" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>110066</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67" s="4" t="n">
         <v>9317596804</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E67" s="0" t="s">
+      <c r="E67" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F67" s="0" t="n">
+      <c r="F67" s="4" t="n">
         <v>818876467</v>
       </c>
-      <c r="G67" s="0" t="s">
+      <c r="G67" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H67" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="I67" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J67" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K67" s="0" t="s">
+      <c r="I67" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J67" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>110067</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68" s="4" t="n">
         <v>9317596805</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E68" s="0" t="s">
+      <c r="E68" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F68" s="0" t="n">
+      <c r="F68" s="4" t="n">
         <v>818876468</v>
       </c>
-      <c r="G68" s="0" t="s">
+      <c r="G68" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H68" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="I68" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J68" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K68" s="0" t="s">
+      <c r="I68" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J68" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K68" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>110068</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69" s="4" t="n">
         <v>9317596806</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E69" s="0" t="s">
+      <c r="E69" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F69" s="0" t="n">
+      <c r="F69" s="4" t="n">
         <v>818876469</v>
       </c>
-      <c r="G69" s="0" t="s">
+      <c r="G69" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H69" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="I69" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J69" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K69" s="0" t="s">
+      <c r="I69" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>110069</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70" s="4" t="n">
         <v>9317596807</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="E70" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F70" s="0" t="n">
+      <c r="F70" s="4" t="n">
         <v>818876470</v>
       </c>
-      <c r="G70" s="0" t="s">
+      <c r="G70" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H70" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="I70" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J70" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K70" s="0" t="s">
+      <c r="I70" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>110070</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71" s="4" t="n">
         <v>9317596808</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="E71" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F71" s="0" t="n">
+      <c r="F71" s="4" t="n">
         <v>818876471</v>
       </c>
-      <c r="G71" s="0" t="s">
+      <c r="G71" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H71" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="I71" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J71" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K71" s="0" t="s">
+      <c r="I71" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J71" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K71" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>110071</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72" s="4" t="n">
         <v>9317596809</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="E72" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F72" s="0" t="n">
+      <c r="F72" s="4" t="n">
         <v>818876472</v>
       </c>
-      <c r="G72" s="0" t="s">
+      <c r="G72" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H72" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="I72" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J72" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K72" s="0" t="s">
+      <c r="I72" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J72" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>110072</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73" s="4" t="n">
         <v>9317596810</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="E73" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F73" s="0" t="n">
+      <c r="F73" s="4" t="n">
         <v>818876473</v>
       </c>
-      <c r="G73" s="0" t="s">
+      <c r="G73" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H73" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="I73" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J73" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K73" s="0" t="s">
+      <c r="I73" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J73" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K73" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>110073</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74" s="4" t="n">
         <v>9317596811</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="E74" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F74" s="0" t="n">
+      <c r="F74" s="4" t="n">
         <v>818876474</v>
       </c>
-      <c r="G74" s="0" t="s">
+      <c r="G74" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H74" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="I74" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J74" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K74" s="0" t="s">
+      <c r="I74" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>110074</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75" s="4" t="n">
         <v>9317596812</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E75" s="0" t="s">
+      <c r="E75" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F75" s="0" t="n">
+      <c r="F75" s="4" t="n">
         <v>818876475</v>
       </c>
-      <c r="G75" s="0" t="s">
+      <c r="G75" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H75" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="I75" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J75" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K75" s="0" t="s">
+      <c r="I75" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J75" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>110075</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76" s="4" t="n">
         <v>9317596813</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E76" s="0" t="s">
+      <c r="E76" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F76" s="0" t="n">
+      <c r="F76" s="4" t="n">
         <v>818876476</v>
       </c>
-      <c r="G76" s="0" t="s">
+      <c r="G76" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H76" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="I76" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J76" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K76" s="0" t="s">
+      <c r="I76" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K76" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>110076</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C77" s="4" t="n">
         <v>9317596814</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E77" s="0" t="s">
+      <c r="E77" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F77" s="0" t="n">
+      <c r="F77" s="4" t="n">
         <v>818876477</v>
       </c>
-      <c r="G77" s="0" t="s">
+      <c r="G77" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H77" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I77" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J77" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K77" s="0" t="s">
+      <c r="I77" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K77" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>110077</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C78" s="4" t="n">
         <v>9317596815</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E78" s="0" t="s">
+      <c r="E78" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F78" s="0" t="n">
+      <c r="F78" s="4" t="n">
         <v>818876478</v>
       </c>
-      <c r="G78" s="0" t="s">
+      <c r="G78" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H78" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="I78" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J78" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K78" s="0" t="s">
+      <c r="I78" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J78" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>110078</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79" s="4" t="n">
         <v>9317596816</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E79" s="0" t="s">
+      <c r="E79" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F79" s="0" t="n">
+      <c r="F79" s="4" t="n">
         <v>818876479</v>
       </c>
-      <c r="G79" s="0" t="s">
+      <c r="G79" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H79" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I79" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J79" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K79" s="0" t="s">
+      <c r="I79" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J79" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>110079</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C80" s="4" t="n">
         <v>9317596817</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E80" s="0" t="s">
+      <c r="E80" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F80" s="0" t="n">
+      <c r="F80" s="4" t="n">
         <v>818876480</v>
       </c>
-      <c r="G80" s="0" t="s">
+      <c r="G80" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H80" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="I80" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J80" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K80" s="0" t="s">
+      <c r="I80" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J80" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K80" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>110080</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81" s="4" t="n">
         <v>9317596818</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E81" s="0" t="s">
+      <c r="E81" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F81" s="0" t="n">
+      <c r="F81" s="4" t="n">
         <v>818876481</v>
       </c>
-      <c r="G81" s="0" t="s">
+      <c r="G81" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H81" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I81" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J81" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K81" s="0" t="s">
+      <c r="I81" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J81" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>110081</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C82" s="4" t="n">
         <v>9317596819</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E82" s="0" t="s">
+      <c r="E82" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F82" s="0" t="n">
+      <c r="F82" s="4" t="n">
         <v>818876482</v>
       </c>
-      <c r="G82" s="0" t="s">
+      <c r="G82" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H82" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="I82" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J82" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K82" s="0" t="s">
+      <c r="I82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J82" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>110082</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C83" s="4" t="n">
         <v>9317596820</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E83" s="0" t="s">
+      <c r="E83" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F83" s="0" t="n">
+      <c r="F83" s="4" t="n">
         <v>818876483</v>
       </c>
-      <c r="G83" s="0" t="s">
+      <c r="G83" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H83" s="1" t="n">
         <v>33333</v>
       </c>
-      <c r="I83" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J83" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K83" s="0" t="s">
+      <c r="I83" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J83" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K83" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>110083</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C84" s="4" t="n">
         <v>9317596821</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E84" s="0" t="s">
+      <c r="E84" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F84" s="0" t="n">
+      <c r="F84" s="4" t="n">
         <v>818876484</v>
       </c>
-      <c r="G84" s="0" t="s">
+      <c r="G84" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H84" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I84" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J84" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K84" s="0" t="s">
+      <c r="I84" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J84" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>110084</v>
       </c>
-      <c r="C85" s="0" t="n">
+      <c r="C85" s="4" t="n">
         <v>9317596822</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E85" s="0" t="s">
+      <c r="E85" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F85" s="0" t="n">
+      <c r="F85" s="4" t="n">
         <v>818876485</v>
       </c>
-      <c r="G85" s="0" t="s">
+      <c r="G85" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H85" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I85" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J85" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K85" s="0" t="s">
+      <c r="I85" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J85" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>110085</v>
       </c>
-      <c r="C86" s="0" t="n">
+      <c r="C86" s="4" t="n">
         <v>9317596823</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E86" s="0" t="s">
+      <c r="E86" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F86" s="0" t="n">
+      <c r="F86" s="4" t="n">
         <v>818876486</v>
       </c>
-      <c r="G86" s="0" t="s">
+      <c r="G86" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H86" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="I86" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J86" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K86" s="0" t="s">
+      <c r="I86" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J86" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K86" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>110086</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C87" s="4" t="n">
         <v>9317596824</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E87" s="0" t="s">
+      <c r="E87" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F87" s="0" t="n">
+      <c r="F87" s="4" t="n">
         <v>818876487</v>
       </c>
-      <c r="G87" s="0" t="s">
+      <c r="G87" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H87" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="I87" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J87" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K87" s="0" t="s">
+      <c r="I87" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J87" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>110087</v>
       </c>
-      <c r="C88" s="0" t="n">
+      <c r="C88" s="4" t="n">
         <v>9317596825</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E88" s="0" t="s">
+      <c r="E88" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F88" s="0" t="n">
+      <c r="F88" s="4" t="n">
         <v>818876488</v>
       </c>
-      <c r="G88" s="0" t="s">
+      <c r="G88" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H88" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I88" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J88" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K88" s="0" t="s">
+      <c r="I88" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J88" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K88" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>110088</v>
       </c>
-      <c r="C89" s="0" t="n">
+      <c r="C89" s="4" t="n">
         <v>9317596826</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E89" s="0" t="s">
+      <c r="E89" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F89" s="0" t="n">
+      <c r="F89" s="4" t="n">
         <v>818876489</v>
       </c>
-      <c r="G89" s="0" t="s">
+      <c r="G89" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H89" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I89" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J89" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K89" s="0" t="s">
+      <c r="I89" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J89" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K89" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>110089</v>
       </c>
-      <c r="C90" s="0" t="n">
+      <c r="C90" s="4" t="n">
         <v>9317596827</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E90" s="0" t="s">
+      <c r="E90" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F90" s="0" t="n">
+      <c r="F90" s="4" t="n">
         <v>818876490</v>
       </c>
-      <c r="G90" s="0" t="s">
+      <c r="G90" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H90" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="I90" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J90" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K90" s="0" t="s">
+      <c r="I90" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J90" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K90" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>110090</v>
       </c>
-      <c r="C91" s="0" t="n">
+      <c r="C91" s="4" t="n">
         <v>9317596828</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E91" s="0" t="s">
+      <c r="E91" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F91" s="0" t="n">
+      <c r="F91" s="4" t="n">
         <v>818876491</v>
       </c>
-      <c r="G91" s="0" t="s">
+      <c r="G91" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H91" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="I91" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J91" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K91" s="0" t="s">
+      <c r="I91" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J91" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>110091</v>
       </c>
-      <c r="C92" s="0" t="n">
+      <c r="C92" s="4" t="n">
         <v>9317596829</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E92" s="0" t="s">
+      <c r="E92" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F92" s="0" t="n">
+      <c r="F92" s="4" t="n">
         <v>818876492</v>
       </c>
-      <c r="G92" s="0" t="s">
+      <c r="G92" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H92" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="I92" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J92" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K92" s="0" t="s">
+      <c r="I92" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J92" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>110092</v>
       </c>
-      <c r="C93" s="0" t="n">
+      <c r="C93" s="4" t="n">
         <v>9317596830</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E93" s="0" t="s">
+      <c r="E93" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F93" s="0" t="n">
+      <c r="F93" s="4" t="n">
         <v>818876493</v>
       </c>
-      <c r="G93" s="0" t="s">
+      <c r="G93" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H93" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="I93" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J93" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K93" s="0" t="s">
+      <c r="I93" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J93" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>110093</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="C94" s="4" t="n">
         <v>9317596831</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E94" s="0" t="s">
+      <c r="E94" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F94" s="0" t="n">
+      <c r="F94" s="4" t="n">
         <v>818876494</v>
       </c>
-      <c r="G94" s="0" t="s">
+      <c r="G94" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H94" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="I94" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J94" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K94" s="0" t="s">
+      <c r="I94" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J94" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K94" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>110094</v>
       </c>
-      <c r="C95" s="0" t="n">
+      <c r="C95" s="4" t="n">
         <v>9317596832</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E95" s="0" t="s">
+      <c r="E95" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F95" s="0" t="n">
+      <c r="F95" s="4" t="n">
         <v>818876495</v>
       </c>
-      <c r="G95" s="0" t="s">
+      <c r="G95" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H95" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="I95" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J95" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K95" s="0" t="s">
+      <c r="I95" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J95" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K95" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>110095</v>
       </c>
-      <c r="C96" s="0" t="n">
+      <c r="C96" s="4" t="n">
         <v>9317596833</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E96" s="0" t="s">
+      <c r="E96" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F96" s="0" t="n">
+      <c r="F96" s="4" t="n">
         <v>818876496</v>
       </c>
-      <c r="G96" s="0" t="s">
+      <c r="G96" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H96" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="I96" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J96" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K96" s="0" t="s">
+      <c r="I96" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J96" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K96" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>110096</v>
       </c>
-      <c r="C97" s="0" t="n">
+      <c r="C97" s="4" t="n">
         <v>9317596834</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E97" s="0" t="s">
+      <c r="E97" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F97" s="0" t="n">
+      <c r="F97" s="4" t="n">
         <v>818876497</v>
       </c>
-      <c r="G97" s="0" t="s">
+      <c r="G97" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H97" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="I97" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J97" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K97" s="0" t="s">
+      <c r="I97" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J97" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K97" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>110097</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="C98" s="4" t="n">
         <v>9317596835</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D98" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E98" s="0" t="s">
+      <c r="E98" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F98" s="0" t="n">
+      <c r="F98" s="4" t="n">
         <v>818876498</v>
       </c>
-      <c r="G98" s="0" t="s">
+      <c r="G98" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H98" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="I98" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J98" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K98" s="0" t="s">
+      <c r="I98" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J98" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>110098</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="C99" s="4" t="n">
         <v>9317596836</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D99" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E99" s="0" t="s">
+      <c r="E99" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F99" s="0" t="n">
+      <c r="F99" s="4" t="n">
         <v>818876499</v>
       </c>
-      <c r="G99" s="0" t="s">
+      <c r="G99" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H99" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="I99" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J99" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K99" s="0" t="s">
+      <c r="I99" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J99" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K99" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>110099</v>
       </c>
-      <c r="C100" s="0" t="n">
+      <c r="C100" s="4" t="n">
         <v>9317596837</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E100" s="0" t="s">
+      <c r="E100" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F100" s="0" t="n">
+      <c r="F100" s="4" t="n">
         <v>818876500</v>
       </c>
-      <c r="G100" s="0" t="s">
+      <c r="G100" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H100" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="I100" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J100" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K100" s="0" t="s">
+      <c r="I100" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J100" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K100" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>110100</v>
       </c>
-      <c r="C101" s="0" t="n">
+      <c r="C101" s="4" t="n">
         <v>9317596838</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D101" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E101" s="0" t="s">
+      <c r="E101" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F101" s="0" t="n">
+      <c r="F101" s="4" t="n">
         <v>818876501</v>
       </c>
-      <c r="G101" s="0" t="s">
+      <c r="G101" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H101" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="I101" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J101" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K101" s="0" t="s">
+      <c r="I101" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J101" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K101" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>110101</v>
       </c>
-      <c r="C102" s="0" t="n">
+      <c r="C102" s="4" t="n">
         <v>9317596839</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="D102" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E102" s="0" t="s">
+      <c r="E102" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F102" s="0" t="n">
+      <c r="F102" s="4" t="n">
         <v>818876502</v>
       </c>
-      <c r="G102" s="0" t="s">
+      <c r="G102" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H102" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="I102" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J102" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K102" s="0" t="s">
+      <c r="I102" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J102" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K102" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>110102</v>
       </c>
-      <c r="C103" s="0" t="n">
+      <c r="C103" s="4" t="n">
         <v>9317596840</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="D103" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E103" s="0" t="s">
+      <c r="E103" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F103" s="0" t="n">
+      <c r="F103" s="4" t="n">
         <v>818876503</v>
       </c>
-      <c r="G103" s="0" t="s">
+      <c r="G103" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H103" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I103" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J103" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K103" s="0" t="s">
+      <c r="I103" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J103" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K103" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>110103</v>
       </c>
-      <c r="C104" s="0" t="n">
+      <c r="C104" s="4" t="n">
         <v>9317596841</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D104" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E104" s="0" t="s">
+      <c r="E104" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F104" s="0" t="n">
+      <c r="F104" s="4" t="n">
         <v>818876504</v>
       </c>
-      <c r="G104" s="0" t="s">
+      <c r="G104" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H104" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I104" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J104" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K104" s="0" t="s">
+      <c r="I104" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J104" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K104" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>110104</v>
       </c>
-      <c r="C105" s="0" t="n">
+      <c r="C105" s="4" t="n">
         <v>9317596842</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D105" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E105" s="0" t="s">
+      <c r="E105" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F105" s="0" t="n">
+      <c r="F105" s="4" t="n">
         <v>818876505</v>
       </c>
-      <c r="G105" s="0" t="s">
+      <c r="G105" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H105" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I105" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J105" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K105" s="0" t="s">
+      <c r="I105" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J105" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K105" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>110105</v>
       </c>
-      <c r="C106" s="0" t="n">
+      <c r="C106" s="4" t="n">
         <v>9317596843</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="D106" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E106" s="0" t="s">
+      <c r="E106" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F106" s="0" t="n">
+      <c r="F106" s="4" t="n">
         <v>818876506</v>
       </c>
-      <c r="G106" s="0" t="s">
+      <c r="G106" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H106" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I106" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J106" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K106" s="0" t="s">
+      <c r="I106" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J106" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K106" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="A107" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>110106</v>
       </c>
-      <c r="C107" s="0" t="n">
+      <c r="C107" s="4" t="n">
         <v>9317596844</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="D107" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E107" s="0" t="s">
+      <c r="E107" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F107" s="0" t="n">
+      <c r="F107" s="4" t="n">
         <v>818876507</v>
       </c>
-      <c r="G107" s="0" t="s">
+      <c r="G107" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H107" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I107" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J107" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K107" s="0" t="s">
+      <c r="I107" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J107" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K107" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="A108" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>110107</v>
       </c>
-      <c r="C108" s="0" t="n">
+      <c r="C108" s="4" t="n">
         <v>9317596845</v>
       </c>
-      <c r="D108" s="0" t="s">
+      <c r="D108" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E108" s="0" t="s">
+      <c r="E108" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F108" s="0" t="n">
+      <c r="F108" s="4" t="n">
         <v>818876508</v>
       </c>
-      <c r="G108" s="0" t="s">
+      <c r="G108" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H108" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I108" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J108" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K108" s="0" t="s">
+      <c r="I108" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J108" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K108" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="A109" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>110108</v>
       </c>
-      <c r="C109" s="0" t="n">
+      <c r="C109" s="4" t="n">
         <v>9317596846</v>
       </c>
-      <c r="D109" s="0" t="s">
+      <c r="D109" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E109" s="0" t="s">
+      <c r="E109" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F109" s="0" t="n">
+      <c r="F109" s="4" t="n">
         <v>818876509</v>
       </c>
-      <c r="G109" s="0" t="s">
+      <c r="G109" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H109" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I109" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J109" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K109" s="0" t="s">
+      <c r="I109" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J109" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K109" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="A110" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>110109</v>
       </c>
-      <c r="C110" s="0" t="n">
+      <c r="C110" s="4" t="n">
         <v>9317596847</v>
       </c>
-      <c r="D110" s="0" t="s">
+      <c r="D110" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E110" s="0" t="s">
+      <c r="E110" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F110" s="0" t="n">
+      <c r="F110" s="4" t="n">
         <v>818876510</v>
       </c>
-      <c r="G110" s="0" t="s">
+      <c r="G110" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H110" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I110" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J110" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K110" s="0" t="s">
+      <c r="I110" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J110" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="A111" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>110110</v>
       </c>
-      <c r="C111" s="0" t="n">
+      <c r="C111" s="4" t="n">
         <v>9317596848</v>
       </c>
-      <c r="D111" s="0" t="s">
+      <c r="D111" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E111" s="0" t="s">
+      <c r="E111" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F111" s="0" t="n">
+      <c r="F111" s="4" t="n">
         <v>818876511</v>
       </c>
-      <c r="G111" s="0" t="s">
+      <c r="G111" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H111" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I111" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J111" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K111" s="0" t="s">
+      <c r="I111" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J111" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K111" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="A112" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>110111</v>
       </c>
-      <c r="C112" s="0" t="n">
+      <c r="C112" s="4" t="n">
         <v>9317596849</v>
       </c>
-      <c r="D112" s="0" t="s">
+      <c r="D112" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E112" s="0" t="s">
+      <c r="E112" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F112" s="0" t="n">
+      <c r="F112" s="4" t="n">
         <v>818876512</v>
       </c>
-      <c r="G112" s="0" t="s">
+      <c r="G112" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H112" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I112" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J112" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K112" s="0" t="s">
+      <c r="I112" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J112" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="A113" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>110112</v>
       </c>
-      <c r="C113" s="0" t="n">
+      <c r="C113" s="4" t="n">
         <v>9317596850</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="D113" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E113" s="0" t="s">
+      <c r="E113" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F113" s="0" t="n">
+      <c r="F113" s="4" t="n">
         <v>818876513</v>
       </c>
-      <c r="G113" s="0" t="s">
+      <c r="G113" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H113" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I113" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J113" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K113" s="0" t="s">
+      <c r="I113" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J113" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K113" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="A114" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>110113</v>
       </c>
-      <c r="C114" s="0" t="n">
+      <c r="C114" s="4" t="n">
         <v>9317596851</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D114" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E114" s="0" t="s">
+      <c r="E114" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F114" s="0" t="n">
+      <c r="F114" s="4" t="n">
         <v>818876514</v>
       </c>
-      <c r="G114" s="0" t="s">
+      <c r="G114" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H114" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I114" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J114" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K114" s="0" t="s">
+      <c r="I114" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J114" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K114" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="A115" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>110114</v>
       </c>
-      <c r="C115" s="0" t="n">
+      <c r="C115" s="4" t="n">
         <v>9317596852</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E115" s="0" t="s">
+      <c r="E115" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F115" s="0" t="n">
+      <c r="F115" s="4" t="n">
         <v>818876515</v>
       </c>
-      <c r="G115" s="0" t="s">
+      <c r="G115" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H115" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I115" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J115" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K115" s="0" t="s">
+      <c r="I115" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J115" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="A116" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>110115</v>
       </c>
-      <c r="C116" s="0" t="n">
+      <c r="C116" s="4" t="n">
         <v>9317596853</v>
       </c>
-      <c r="D116" s="0" t="s">
+      <c r="D116" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E116" s="0" t="s">
+      <c r="E116" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F116" s="0" t="n">
+      <c r="F116" s="4" t="n">
         <v>818876516</v>
       </c>
-      <c r="G116" s="0" t="s">
+      <c r="G116" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H116" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I116" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J116" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K116" s="0" t="s">
+      <c r="I116" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J116" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="A117" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>110116</v>
       </c>
-      <c r="C117" s="0" t="n">
+      <c r="C117" s="4" t="n">
         <v>9317596854</v>
       </c>
-      <c r="D117" s="0" t="s">
+      <c r="D117" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E117" s="0" t="s">
+      <c r="E117" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F117" s="0" t="n">
+      <c r="F117" s="4" t="n">
         <v>818876517</v>
       </c>
-      <c r="G117" s="0" t="s">
+      <c r="G117" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H117" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I117" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J117" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K117" s="0" t="s">
+      <c r="I117" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J117" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K117" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="A118" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>110117</v>
       </c>
-      <c r="C118" s="0" t="n">
+      <c r="C118" s="4" t="n">
         <v>9317596855</v>
       </c>
-      <c r="D118" s="0" t="s">
+      <c r="D118" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E118" s="0" t="s">
+      <c r="E118" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F118" s="0" t="n">
+      <c r="F118" s="4" t="n">
         <v>818876518</v>
       </c>
-      <c r="G118" s="0" t="s">
+      <c r="G118" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H118" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I118" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J118" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K118" s="0" t="s">
+      <c r="I118" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J118" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K118" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="A119" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>110118</v>
       </c>
-      <c r="C119" s="0" t="n">
+      <c r="C119" s="4" t="n">
         <v>9317596856</v>
       </c>
-      <c r="D119" s="0" t="s">
+      <c r="D119" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E119" s="0" t="s">
+      <c r="E119" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F119" s="0" t="n">
+      <c r="F119" s="4" t="n">
         <v>9840587089</v>
       </c>
-      <c r="G119" s="0" t="s">
+      <c r="G119" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H119" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I119" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J119" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K119" s="0" t="s">
+      <c r="I119" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J119" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K119" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+      <c r="A120" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>110119</v>
       </c>
-      <c r="C120" s="0" t="n">
+      <c r="C120" s="4" t="n">
         <v>9317596857</v>
       </c>
-      <c r="D120" s="0" t="s">
+      <c r="D120" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E120" s="0" t="s">
+      <c r="E120" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F120" s="0" t="n">
+      <c r="F120" s="4" t="n">
         <v>8277417831</v>
       </c>
-      <c r="G120" s="0" t="s">
+      <c r="G120" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H120" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="I120" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J120" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K120" s="0" t="s">
+      <c r="I120" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J120" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K120" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="A121" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>110120</v>
       </c>
-      <c r="C121" s="0" t="n">
+      <c r="C121" s="4" t="n">
         <v>9317596858</v>
       </c>
-      <c r="D121" s="0" t="s">
+      <c r="D121" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E121" s="0" t="s">
+      <c r="E121" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F121" s="0" t="n">
+      <c r="F121" s="4" t="n">
         <v>9980939623</v>
       </c>
-      <c r="G121" s="0" t="s">
+      <c r="G121" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H121" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I121" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J121" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K121" s="0" t="s">
+      <c r="I121" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J121" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+      <c r="A122" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>110121</v>
       </c>
-      <c r="C122" s="0" t="n">
+      <c r="C122" s="4" t="n">
         <v>9317596859</v>
       </c>
-      <c r="D122" s="0" t="s">
+      <c r="D122" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E122" s="0" t="s">
+      <c r="E122" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F122" s="0" t="n">
+      <c r="F122" s="4" t="n">
         <v>9741112380</v>
       </c>
-      <c r="G122" s="0" t="s">
+      <c r="G122" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H122" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="I122" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J122" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K122" s="0" t="s">
+      <c r="I122" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J122" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+      <c r="A123" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>110122</v>
       </c>
-      <c r="C123" s="0" t="n">
+      <c r="C123" s="4" t="n">
         <v>9317596860</v>
       </c>
-      <c r="D123" s="0" t="s">
+      <c r="D123" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E123" s="0" t="s">
+      <c r="E123" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F123" s="0" t="n">
+      <c r="F123" s="4" t="n">
         <v>9606139887</v>
       </c>
-      <c r="G123" s="0" t="s">
+      <c r="G123" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H123" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I123" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J123" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K123" s="0" t="s">
+      <c r="I123" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J123" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K123" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+      <c r="A124" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>110123</v>
       </c>
-      <c r="C124" s="0" t="n">
+      <c r="C124" s="4" t="n">
         <v>9317596861</v>
       </c>
-      <c r="D124" s="0" t="s">
+      <c r="D124" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E124" s="0" t="s">
+      <c r="E124" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F124" s="0" t="n">
+      <c r="F124" s="4" t="n">
         <v>9441781690</v>
       </c>
-      <c r="G124" s="0" t="s">
+      <c r="G124" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H124" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="I124" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J124" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K124" s="0" t="s">
+      <c r="I124" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J124" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+      <c r="A125" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>110124</v>
       </c>
-      <c r="C125" s="0" t="n">
+      <c r="C125" s="4" t="n">
         <v>9317596862</v>
       </c>
-      <c r="D125" s="0" t="s">
+      <c r="D125" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E125" s="0" t="s">
+      <c r="E125" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F125" s="0" t="n">
+      <c r="F125" s="4" t="n">
         <v>8553967572</v>
       </c>
-      <c r="G125" s="0" t="s">
+      <c r="G125" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H125" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I125" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J125" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K125" s="0" t="s">
+      <c r="I125" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J125" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K125" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+      <c r="A126" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>110125</v>
       </c>
-      <c r="C126" s="0" t="n">
+      <c r="C126" s="4" t="n">
         <v>9317596863</v>
       </c>
-      <c r="D126" s="0" t="s">
+      <c r="D126" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E126" s="0" t="s">
+      <c r="E126" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F126" s="0" t="n">
+      <c r="F126" s="4" t="n">
         <v>8800932977</v>
       </c>
-      <c r="G126" s="0" t="s">
+      <c r="G126" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H126" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I126" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J126" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K126" s="0" t="s">
+      <c r="I126" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J126" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K126" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+      <c r="A127" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>110126</v>
       </c>
-      <c r="C127" s="0" t="n">
+      <c r="C127" s="4" t="n">
         <v>9317596864</v>
       </c>
-      <c r="D127" s="0" t="s">
+      <c r="D127" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E127" s="0" t="s">
+      <c r="E127" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F127" s="0" t="n">
+      <c r="F127" s="4" t="n">
         <v>8600097143</v>
       </c>
-      <c r="G127" s="0" t="s">
+      <c r="G127" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H127" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="I127" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J127" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K127" s="0" t="s">
+      <c r="I127" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J127" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+      <c r="A128" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>110127</v>
       </c>
-      <c r="C128" s="0" t="n">
+      <c r="C128" s="4" t="n">
         <v>9317596865</v>
       </c>
-      <c r="D128" s="0" t="s">
+      <c r="D128" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E128" s="0" t="s">
+      <c r="E128" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F128" s="0" t="n">
+      <c r="F128" s="4" t="n">
         <v>9851646105</v>
       </c>
-      <c r="G128" s="0" t="s">
+      <c r="G128" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H128" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="I128" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J128" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K128" s="0" t="s">
+      <c r="I128" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J128" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K128" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+      <c r="A129" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>110128</v>
       </c>
-      <c r="C129" s="0" t="n">
+      <c r="C129" s="4" t="n">
         <v>9317596866</v>
       </c>
-      <c r="D129" s="0" t="s">
+      <c r="D129" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E129" s="0" t="s">
+      <c r="E129" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="F129" s="0" t="n">
+      <c r="F129" s="4" t="n">
         <v>7738710535</v>
       </c>
-      <c r="G129" s="0" t="s">
+      <c r="G129" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H129" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="I129" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J129" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K129" s="0" t="s">
+      <c r="I129" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J129" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K129" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+      <c r="A130" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>110129</v>
       </c>
-      <c r="C130" s="0" t="n">
+      <c r="C130" s="4" t="n">
         <v>9317596867</v>
       </c>
-      <c r="D130" s="0" t="s">
+      <c r="D130" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E130" s="0" t="s">
+      <c r="E130" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F130" s="0" t="n">
+      <c r="F130" s="4" t="n">
         <v>9876543212</v>
       </c>
-      <c r="G130" s="0" t="s">
+      <c r="G130" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H130" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I130" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J130" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K130" s="0" t="s">
+      <c r="I130" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J130" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+      <c r="A131" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>110130</v>
       </c>
-      <c r="C131" s="0" t="n">
+      <c r="C131" s="4" t="n">
         <v>9317596868</v>
       </c>
-      <c r="D131" s="0" t="s">
+      <c r="D131" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E131" s="0" t="s">
+      <c r="E131" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F131" s="0" t="n">
+      <c r="F131" s="4" t="n">
         <v>9876543213</v>
       </c>
-      <c r="G131" s="0" t="s">
+      <c r="G131" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H131" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="I131" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J131" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K131" s="0" t="s">
+      <c r="I131" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J131" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+      <c r="A132" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>110131</v>
       </c>
-      <c r="C132" s="0" t="n">
+      <c r="C132" s="4" t="n">
         <v>9317596869</v>
       </c>
-      <c r="D132" s="0" t="s">
+      <c r="D132" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E132" s="0" t="s">
+      <c r="E132" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F132" s="0" t="n">
+      <c r="F132" s="4" t="n">
         <v>9876543214</v>
       </c>
-      <c r="G132" s="0" t="s">
+      <c r="G132" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H132" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="I132" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J132" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K132" s="0" t="s">
+      <c r="I132" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J132" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K132" s="4" t="s">
         <v>16</v>
       </c>
     </row>

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/user_detail_h.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/user_detail_h.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="181">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">PWD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">now()</t>
@@ -690,8 +693,8 @@
   </sheetPr>
   <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J:J"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2:J132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -764,12 +767,11 @@
       <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -783,10 +785,10 @@
         <v>7314004469</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>795281431</v>
@@ -800,12 +802,11 @@
       <c r="I3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -819,10 +820,10 @@
         <v>7896109326</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>739704695</v>
@@ -836,12 +837,11 @@
       <c r="I4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -855,10 +855,10 @@
         <v>2870381373</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>725028706</v>
@@ -872,12 +872,11 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -891,10 +890,10 @@
         <v>7234451333</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>804319687</v>
@@ -908,12 +907,11 @@
       <c r="I6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -927,10 +925,10 @@
         <v>3563474484</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>9449170382</v>
@@ -944,12 +942,11 @@
       <c r="I7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -963,10 +960,10 @@
         <v>5804057178</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>899884346</v>
@@ -980,12 +977,11 @@
       <c r="I8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -999,10 +995,10 @@
         <v>1823955503</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>946624002</v>
@@ -1016,12 +1012,11 @@
       <c r="I9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J9" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1035,10 +1030,10 @@
         <v>6028049229</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>716591396</v>
@@ -1052,12 +1047,11 @@
       <c r="I10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J10" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1071,10 +1065,10 @@
         <v>2685259089</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>718961429</v>
@@ -1088,12 +1082,11 @@
       <c r="I11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J11" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1107,10 +1100,10 @@
         <v>3834346151</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="4" t="n">
         <v>938380935</v>
@@ -1124,12 +1117,11 @@
       <c r="I12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J12" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1143,10 +1135,10 @@
         <v>3493338361</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>911713143</v>
@@ -1160,12 +1152,11 @@
       <c r="I13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J13" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1179,10 +1170,10 @@
         <v>5145284955</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>859668671</v>
@@ -1196,12 +1187,11 @@
       <c r="I14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J14" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1215,10 +1205,10 @@
         <v>4285838622</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>971384902</v>
@@ -1232,12 +1222,11 @@
       <c r="I15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J15" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1251,10 +1240,10 @@
         <v>3740463764</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>876997632</v>
@@ -1268,12 +1257,11 @@
       <c r="I16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J16" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1287,10 +1275,10 @@
         <v>6431857131</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>853451517</v>
@@ -1304,12 +1292,11 @@
       <c r="I17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J17" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1323,10 +1310,10 @@
         <v>2638207977</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>723337142</v>
@@ -1340,12 +1327,11 @@
       <c r="I18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J18" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1359,10 +1345,10 @@
         <v>6893364288</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="4" t="n">
         <v>733802681</v>
@@ -1376,12 +1362,11 @@
       <c r="I19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J19" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1395,10 +1380,10 @@
         <v>5251539502</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="4" t="n">
         <v>942983448</v>
@@ -1412,12 +1397,11 @@
       <c r="I20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J20" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1431,10 +1415,10 @@
         <v>7724013062</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="4" t="n">
         <v>936463358</v>
@@ -1448,12 +1432,11 @@
       <c r="I21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J21" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1467,10 +1450,10 @@
         <v>7316931025</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>932122450</v>
@@ -1484,12 +1467,11 @@
       <c r="I22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J22" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1503,10 +1485,10 @@
         <v>9137847236</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="4" t="n">
         <v>848488000</v>
@@ -1520,12 +1502,11 @@
       <c r="I23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J23" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1539,10 +1520,10 @@
         <v>8428758532</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="4" t="n">
         <v>894773246</v>
@@ -1556,12 +1537,11 @@
       <c r="I24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J24" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1575,10 +1555,10 @@
         <v>9804209494</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" s="4" t="n">
         <v>956554588</v>
@@ -1592,12 +1572,11 @@
       <c r="I25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J25" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J25" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1611,10 +1590,10 @@
         <v>7105248214</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F26" s="4" t="n">
         <v>765455583</v>
@@ -1628,12 +1607,11 @@
       <c r="I26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J26" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1647,10 +1625,10 @@
         <v>9316557128</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F27" s="4" t="n">
         <v>884282274</v>
@@ -1664,12 +1642,11 @@
       <c r="I27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J27" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J27" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1683,10 +1660,10 @@
         <v>8103486949</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28" s="4" t="n">
         <v>971073663</v>
@@ -1700,12 +1677,11 @@
       <c r="I28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J28" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1719,10 +1695,10 @@
         <v>9601932866</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F29" s="4" t="n">
         <v>809908673</v>
@@ -1736,12 +1712,11 @@
       <c r="I29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J29" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J29" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1755,10 +1730,10 @@
         <v>9317596765</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F30" s="4" t="n">
         <v>818876429</v>
@@ -1772,12 +1747,11 @@
       <c r="I30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J30" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J30" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1791,10 +1765,10 @@
         <v>9317596768</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" s="4" t="n">
         <v>818876432</v>
@@ -1808,12 +1782,11 @@
       <c r="I31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J31" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J31" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1827,10 +1800,10 @@
         <v>9317596767</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F32" s="4" t="n">
         <v>818876431</v>
@@ -1844,12 +1817,11 @@
       <c r="I32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J32" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J32" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1863,10 +1835,10 @@
         <v>9317596770</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" s="4" t="n">
         <v>818876433</v>
@@ -1880,12 +1852,11 @@
       <c r="I33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J33" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J33" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1899,10 +1870,10 @@
         <v>9317596771</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F34" s="4" t="n">
         <v>818876434</v>
@@ -1916,12 +1887,11 @@
       <c r="I34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J34" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1935,10 +1905,10 @@
         <v>9317596772</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F35" s="4" t="n">
         <v>818876435</v>
@@ -1952,12 +1922,11 @@
       <c r="I35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J35" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J35" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,10 +1940,10 @@
         <v>9317596773</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F36" s="4" t="n">
         <v>818876436</v>
@@ -1988,12 +1957,11 @@
       <c r="I36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J36" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J36" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2007,10 +1975,10 @@
         <v>9317596774</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F37" s="4" t="n">
         <v>818876437</v>
@@ -2024,12 +1992,11 @@
       <c r="I37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J37" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J37" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2043,10 +2010,10 @@
         <v>9317596775</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F38" s="4" t="n">
         <v>818876438</v>
@@ -2060,12 +2027,11 @@
       <c r="I38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J38" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J38" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2079,10 +2045,10 @@
         <v>9317596776</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F39" s="4" t="n">
         <v>8763740607</v>
@@ -2096,12 +2062,11 @@
       <c r="I39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J39" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J39" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2115,10 +2080,10 @@
         <v>9317596777</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F40" s="4" t="n">
         <v>818876440</v>
@@ -2132,12 +2097,11 @@
       <c r="I40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J40" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J40" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2151,10 +2115,10 @@
         <v>9317596778</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F41" s="4" t="n">
         <v>818876441</v>
@@ -2168,12 +2132,11 @@
       <c r="I41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J41" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J41" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2187,10 +2150,10 @@
         <v>9317596779</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F42" s="4" t="n">
         <v>818876442</v>
@@ -2204,12 +2167,11 @@
       <c r="I42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J42" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J42" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2223,10 +2185,10 @@
         <v>9317596780</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F43" s="4" t="n">
         <v>818876443</v>
@@ -2240,12 +2202,11 @@
       <c r="I43" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J43" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J43" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2259,10 +2220,10 @@
         <v>9317596781</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F44" s="4" t="n">
         <v>818876444</v>
@@ -2276,12 +2237,11 @@
       <c r="I44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J44" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J44" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2295,10 +2255,10 @@
         <v>9317596782</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F45" s="4" t="n">
         <v>818876445</v>
@@ -2312,12 +2272,11 @@
       <c r="I45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J45" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J45" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2331,10 +2290,10 @@
         <v>9317596783</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F46" s="4" t="n">
         <v>818876446</v>
@@ -2348,12 +2307,11 @@
       <c r="I46" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J46" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J46" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2367,10 +2325,10 @@
         <v>9317596784</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F47" s="4" t="n">
         <v>818876447</v>
@@ -2384,12 +2342,11 @@
       <c r="I47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J47" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J47" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2403,10 +2360,10 @@
         <v>9317596785</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F48" s="4" t="n">
         <v>818876448</v>
@@ -2420,12 +2377,11 @@
       <c r="I48" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J48" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J48" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2439,10 +2395,10 @@
         <v>9317596786</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F49" s="4" t="n">
         <v>818876449</v>
@@ -2456,12 +2412,11 @@
       <c r="I49" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J49" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J49" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2475,10 +2430,10 @@
         <v>9317596787</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F50" s="4" t="n">
         <v>818876450</v>
@@ -2492,12 +2447,11 @@
       <c r="I50" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J50" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J50" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2511,10 +2465,10 @@
         <v>9317596788</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F51" s="4" t="n">
         <v>818876451</v>
@@ -2528,12 +2482,11 @@
       <c r="I51" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J51" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2547,10 +2500,10 @@
         <v>9317596789</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F52" s="4" t="n">
         <v>818876452</v>
@@ -2564,12 +2517,11 @@
       <c r="I52" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J52" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J52" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2583,10 +2535,10 @@
         <v>9317596790</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F53" s="4" t="n">
         <v>818876453</v>
@@ -2600,12 +2552,11 @@
       <c r="I53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J53" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J53" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2619,10 +2570,10 @@
         <v>9317596791</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F54" s="4" t="n">
         <v>818876454</v>
@@ -2636,12 +2587,11 @@
       <c r="I54" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J54" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J54" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2655,10 +2605,10 @@
         <v>9317596792</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F55" s="4" t="n">
         <v>818876455</v>
@@ -2672,12 +2622,11 @@
       <c r="I55" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J55" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2691,10 +2640,10 @@
         <v>9317596793</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F56" s="4" t="n">
         <v>818876456</v>
@@ -2708,12 +2657,11 @@
       <c r="I56" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J56" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J56" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2727,10 +2675,10 @@
         <v>9317596794</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F57" s="4" t="n">
         <v>818876457</v>
@@ -2744,12 +2692,11 @@
       <c r="I57" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J57" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J57" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2763,10 +2710,10 @@
         <v>9317596795</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F58" s="4" t="n">
         <v>818876458</v>
@@ -2780,12 +2727,11 @@
       <c r="I58" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J58" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J58" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2799,10 +2745,10 @@
         <v>9317596796</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F59" s="4" t="n">
         <v>818876459</v>
@@ -2816,12 +2762,11 @@
       <c r="I59" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J59" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J59" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2835,10 +2780,10 @@
         <v>9317596797</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F60" s="4" t="n">
         <v>818876460</v>
@@ -2852,12 +2797,11 @@
       <c r="I60" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J60" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J60" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2871,10 +2815,10 @@
         <v>9317596798</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F61" s="4" t="n">
         <v>818876461</v>
@@ -2888,12 +2832,11 @@
       <c r="I61" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J61" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J61" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2907,10 +2850,10 @@
         <v>9317596799</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F62" s="4" t="n">
         <v>818876462</v>
@@ -2924,12 +2867,11 @@
       <c r="I62" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J62" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J62" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2943,10 +2885,10 @@
         <v>9317596800</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F63" s="4" t="n">
         <v>818876463</v>
@@ -2960,12 +2902,11 @@
       <c r="I63" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J63" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J63" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2979,10 +2920,10 @@
         <v>9317596801</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F64" s="4" t="n">
         <v>818876464</v>
@@ -2996,12 +2937,11 @@
       <c r="I64" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J64" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J64" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3015,10 +2955,10 @@
         <v>9317596802</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F65" s="4" t="n">
         <v>818876465</v>
@@ -3032,12 +2972,11 @@
       <c r="I65" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J65" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J65" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3051,10 +2990,10 @@
         <v>9317596803</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F66" s="4" t="n">
         <v>818876466</v>
@@ -3068,12 +3007,11 @@
       <c r="I66" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J66" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J66" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3087,10 +3025,10 @@
         <v>9317596804</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F67" s="4" t="n">
         <v>818876467</v>
@@ -3104,12 +3042,11 @@
       <c r="I67" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J67" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J67" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3123,10 +3060,10 @@
         <v>9317596805</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F68" s="4" t="n">
         <v>818876468</v>
@@ -3140,12 +3077,11 @@
       <c r="I68" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J68" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J68" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3159,10 +3095,10 @@
         <v>9317596806</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F69" s="4" t="n">
         <v>818876469</v>
@@ -3176,12 +3112,11 @@
       <c r="I69" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J69" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J69" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3195,10 +3130,10 @@
         <v>9317596807</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F70" s="4" t="n">
         <v>818876470</v>
@@ -3212,12 +3147,11 @@
       <c r="I70" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J70" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J70" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3231,10 +3165,10 @@
         <v>9317596808</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F71" s="4" t="n">
         <v>818876471</v>
@@ -3248,12 +3182,11 @@
       <c r="I71" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J71" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J71" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3267,10 +3200,10 @@
         <v>9317596809</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F72" s="4" t="n">
         <v>818876472</v>
@@ -3284,12 +3217,11 @@
       <c r="I72" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J72" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J72" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3303,10 +3235,10 @@
         <v>9317596810</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F73" s="4" t="n">
         <v>818876473</v>
@@ -3320,12 +3252,11 @@
       <c r="I73" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J73" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J73" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3339,10 +3270,10 @@
         <v>9317596811</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F74" s="4" t="n">
         <v>818876474</v>
@@ -3356,12 +3287,11 @@
       <c r="I74" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J74" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J74" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3375,10 +3305,10 @@
         <v>9317596812</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F75" s="4" t="n">
         <v>818876475</v>
@@ -3392,12 +3322,11 @@
       <c r="I75" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J75" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J75" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3411,10 +3340,10 @@
         <v>9317596813</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F76" s="4" t="n">
         <v>818876476</v>
@@ -3428,12 +3357,11 @@
       <c r="I76" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J76" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J76" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3447,10 +3375,10 @@
         <v>9317596814</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F77" s="4" t="n">
         <v>818876477</v>
@@ -3464,12 +3392,11 @@
       <c r="I77" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J77" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J77" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3483,10 +3410,10 @@
         <v>9317596815</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F78" s="4" t="n">
         <v>818876478</v>
@@ -3500,12 +3427,11 @@
       <c r="I78" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J78" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J78" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3519,10 +3445,10 @@
         <v>9317596816</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F79" s="4" t="n">
         <v>818876479</v>
@@ -3536,12 +3462,11 @@
       <c r="I79" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J79" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J79" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3555,10 +3480,10 @@
         <v>9317596817</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F80" s="4" t="n">
         <v>818876480</v>
@@ -3572,12 +3497,11 @@
       <c r="I80" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J80" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J80" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3591,10 +3515,10 @@
         <v>9317596818</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F81" s="4" t="n">
         <v>818876481</v>
@@ -3608,12 +3532,11 @@
       <c r="I81" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J81" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J81" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3627,10 +3550,10 @@
         <v>9317596819</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F82" s="4" t="n">
         <v>818876482</v>
@@ -3644,12 +3567,11 @@
       <c r="I82" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J82" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J82" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3663,10 +3585,10 @@
         <v>9317596820</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F83" s="4" t="n">
         <v>818876483</v>
@@ -3680,12 +3602,11 @@
       <c r="I83" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J83" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J83" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3699,10 +3620,10 @@
         <v>9317596821</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F84" s="4" t="n">
         <v>818876484</v>
@@ -3716,12 +3637,11 @@
       <c r="I84" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J84" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J84" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3735,10 +3655,10 @@
         <v>9317596822</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F85" s="4" t="n">
         <v>818876485</v>
@@ -3752,12 +3672,11 @@
       <c r="I85" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J85" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J85" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3771,10 +3690,10 @@
         <v>9317596823</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F86" s="4" t="n">
         <v>818876486</v>
@@ -3788,12 +3707,11 @@
       <c r="I86" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J86" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J86" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3807,10 +3725,10 @@
         <v>9317596824</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F87" s="4" t="n">
         <v>818876487</v>
@@ -3824,12 +3742,11 @@
       <c r="I87" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J87" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J87" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3843,10 +3760,10 @@
         <v>9317596825</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F88" s="4" t="n">
         <v>818876488</v>
@@ -3860,12 +3777,11 @@
       <c r="I88" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J88" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J88" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3879,10 +3795,10 @@
         <v>9317596826</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F89" s="4" t="n">
         <v>818876489</v>
@@ -3896,12 +3812,11 @@
       <c r="I89" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J89" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J89" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3915,10 +3830,10 @@
         <v>9317596827</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F90" s="4" t="n">
         <v>818876490</v>
@@ -3932,12 +3847,11 @@
       <c r="I90" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J90" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J90" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3951,10 +3865,10 @@
         <v>9317596828</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F91" s="4" t="n">
         <v>818876491</v>
@@ -3968,12 +3882,11 @@
       <c r="I91" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J91" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J91" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3987,10 +3900,10 @@
         <v>9317596829</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F92" s="4" t="n">
         <v>818876492</v>
@@ -4004,12 +3917,11 @@
       <c r="I92" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J92" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J92" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4023,10 +3935,10 @@
         <v>9317596830</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F93" s="4" t="n">
         <v>818876493</v>
@@ -4040,12 +3952,11 @@
       <c r="I93" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J93" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J93" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4059,10 +3970,10 @@
         <v>9317596831</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F94" s="4" t="n">
         <v>818876494</v>
@@ -4076,12 +3987,11 @@
       <c r="I94" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J94" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J94" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4095,10 +4005,10 @@
         <v>9317596832</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F95" s="4" t="n">
         <v>818876495</v>
@@ -4112,12 +4022,11 @@
       <c r="I95" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J95" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J95" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4131,10 +4040,10 @@
         <v>9317596833</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F96" s="4" t="n">
         <v>818876496</v>
@@ -4148,12 +4057,11 @@
       <c r="I96" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J96" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J96" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4167,10 +4075,10 @@
         <v>9317596834</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F97" s="4" t="n">
         <v>818876497</v>
@@ -4184,12 +4092,11 @@
       <c r="I97" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J97" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J97" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4203,10 +4110,10 @@
         <v>9317596835</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F98" s="4" t="n">
         <v>818876498</v>
@@ -4220,12 +4127,11 @@
       <c r="I98" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J98" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J98" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4239,10 +4145,10 @@
         <v>9317596836</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F99" s="4" t="n">
         <v>818876499</v>
@@ -4256,12 +4162,11 @@
       <c r="I99" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J99" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J99" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4275,10 +4180,10 @@
         <v>9317596837</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F100" s="4" t="n">
         <v>818876500</v>
@@ -4292,12 +4197,11 @@
       <c r="I100" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J100" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J100" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4311,10 +4215,10 @@
         <v>9317596838</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F101" s="4" t="n">
         <v>818876501</v>
@@ -4328,12 +4232,11 @@
       <c r="I101" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J101" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J101" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4347,10 +4250,10 @@
         <v>9317596839</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F102" s="4" t="n">
         <v>818876502</v>
@@ -4364,12 +4267,11 @@
       <c r="I102" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J102" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J102" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4383,10 +4285,10 @@
         <v>9317596840</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F103" s="4" t="n">
         <v>818876503</v>
@@ -4400,12 +4302,11 @@
       <c r="I103" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J103" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J103" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4419,10 +4320,10 @@
         <v>9317596841</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F104" s="4" t="n">
         <v>818876504</v>
@@ -4436,12 +4337,11 @@
       <c r="I104" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J104" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J104" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4455,10 +4355,10 @@
         <v>9317596842</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F105" s="4" t="n">
         <v>818876505</v>
@@ -4472,12 +4372,11 @@
       <c r="I105" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J105" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J105" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4491,10 +4390,10 @@
         <v>9317596843</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F106" s="4" t="n">
         <v>818876506</v>
@@ -4508,12 +4407,11 @@
       <c r="I106" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J106" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J106" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4527,10 +4425,10 @@
         <v>9317596844</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F107" s="4" t="n">
         <v>818876507</v>
@@ -4544,12 +4442,11 @@
       <c r="I107" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J107" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J107" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K107" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4563,10 +4460,10 @@
         <v>9317596845</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F108" s="4" t="n">
         <v>818876508</v>
@@ -4580,12 +4477,11 @@
       <c r="I108" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J108" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J108" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4599,10 +4495,10 @@
         <v>9317596846</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F109" s="4" t="n">
         <v>818876509</v>
@@ -4616,12 +4512,11 @@
       <c r="I109" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J109" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J109" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4635,10 +4530,10 @@
         <v>9317596847</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F110" s="4" t="n">
         <v>818876510</v>
@@ -4652,12 +4547,11 @@
       <c r="I110" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J110" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J110" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K110" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4671,10 +4565,10 @@
         <v>9317596848</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F111" s="4" t="n">
         <v>818876511</v>
@@ -4688,12 +4582,11 @@
       <c r="I111" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J111" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J111" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K111" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4707,10 +4600,10 @@
         <v>9317596849</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F112" s="4" t="n">
         <v>818876512</v>
@@ -4724,12 +4617,11 @@
       <c r="I112" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J112" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J112" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4743,10 +4635,10 @@
         <v>9317596850</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F113" s="4" t="n">
         <v>818876513</v>
@@ -4760,12 +4652,11 @@
       <c r="I113" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J113" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J113" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4779,10 +4670,10 @@
         <v>9317596851</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F114" s="4" t="n">
         <v>818876514</v>
@@ -4796,12 +4687,11 @@
       <c r="I114" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J114" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J114" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4815,10 +4705,10 @@
         <v>9317596852</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F115" s="4" t="n">
         <v>818876515</v>
@@ -4832,12 +4722,11 @@
       <c r="I115" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J115" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J115" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4851,10 +4740,10 @@
         <v>9317596853</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F116" s="4" t="n">
         <v>818876516</v>
@@ -4868,12 +4757,11 @@
       <c r="I116" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J116" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J116" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K116" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4887,10 +4775,10 @@
         <v>9317596854</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F117" s="4" t="n">
         <v>818876517</v>
@@ -4904,12 +4792,11 @@
       <c r="I117" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J117" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J117" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K117" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4923,10 +4810,10 @@
         <v>9317596855</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F118" s="4" t="n">
         <v>818876518</v>
@@ -4940,12 +4827,11 @@
       <c r="I118" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J118" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J118" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K118" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4959,10 +4845,10 @@
         <v>9317596856</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F119" s="4" t="n">
         <v>9840587089</v>
@@ -4976,12 +4862,11 @@
       <c r="I119" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J119" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J119" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4995,10 +4880,10 @@
         <v>9317596857</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F120" s="4" t="n">
         <v>8277417831</v>
@@ -5012,12 +4897,11 @@
       <c r="I120" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J120" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J120" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5031,10 +4915,10 @@
         <v>9317596858</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F121" s="4" t="n">
         <v>9980939623</v>
@@ -5048,12 +4932,11 @@
       <c r="I121" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J121" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J121" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5067,10 +4950,10 @@
         <v>9317596859</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F122" s="4" t="n">
         <v>9741112380</v>
@@ -5084,12 +4967,11 @@
       <c r="I122" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J122" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J122" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K122" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5103,10 +4985,10 @@
         <v>9317596860</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F123" s="4" t="n">
         <v>9606139887</v>
@@ -5120,12 +5002,11 @@
       <c r="I123" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J123" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J123" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K123" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5139,10 +5020,10 @@
         <v>9317596861</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F124" s="4" t="n">
         <v>9441781690</v>
@@ -5156,12 +5037,11 @@
       <c r="I124" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J124" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J124" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5175,10 +5055,10 @@
         <v>9317596862</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F125" s="4" t="n">
         <v>8553967572</v>
@@ -5192,12 +5072,11 @@
       <c r="I125" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J125" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J125" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K125" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5211,10 +5090,10 @@
         <v>9317596863</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F126" s="4" t="n">
         <v>8800932977</v>
@@ -5228,12 +5107,11 @@
       <c r="I126" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J126" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J126" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5247,10 +5125,10 @@
         <v>9317596864</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F127" s="4" t="n">
         <v>8600097143</v>
@@ -5264,12 +5142,11 @@
       <c r="I127" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J127" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J127" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K127" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5283,10 +5160,10 @@
         <v>9317596865</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F128" s="4" t="n">
         <v>9851646105</v>
@@ -5300,12 +5177,11 @@
       <c r="I128" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J128" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J128" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K128" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5319,10 +5195,10 @@
         <v>9317596866</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F129" s="4" t="n">
         <v>7738710535</v>
@@ -5336,12 +5212,11 @@
       <c r="I129" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J129" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J129" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K129" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5355,10 +5230,10 @@
         <v>9317596867</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F130" s="4" t="n">
         <v>9876543212</v>
@@ -5372,12 +5247,11 @@
       <c r="I130" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J130" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J130" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K130" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5391,10 +5265,10 @@
         <v>9317596868</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F131" s="4" t="n">
         <v>9876543213</v>
@@ -5408,12 +5282,11 @@
       <c r="I131" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J131" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J131" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K131" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5427,10 +5300,10 @@
         <v>9317596869</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F132" s="4" t="n">
         <v>9876543214</v>
@@ -5444,12 +5317,11 @@
       <c r="I132" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J132" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J132" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K132" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
